--- a/Week 11/Week 11 Plan.xlsx
+++ b/Week 11/Week 11 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A376AFA6-311B-4112-832F-C1320D307D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACBC942-61CE-445A-A391-265A89581043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Strings, Divide and Conquer, Bit Manipulation.</t>
   </si>
@@ -154,26 +154,26 @@
     <t>DONE</t>
   </si>
   <si>
-    <r>
-      <t>https://leetcode.com/problems/wildcard-matching/</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  (Very Imp)</t>
-    </r>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/naive-algorithm-for-pattern-searching/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/optimized-naive-algorithm-for-pattern-searching/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rabin-karp-algorithm-for-pattern-searching/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -223,6 +223,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -259,10 +272,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,8 +318,12 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,10 +540,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O1004"/>
+  <dimension ref="A1:O1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -535,7 +553,7 @@
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -543,311 +561,353 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="B14" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="B18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="B19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="10"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="10"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="10"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="10"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="10"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="10"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="10"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="4"/>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="2"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="4"/>
+      <c r="N47" s="5"/>
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="I48" s="2"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="2"/>
@@ -876,7 +936,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="3"/>
       <c r="G50" s="2"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -924,7 +984,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -937,9 +997,9 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
-      <c r="C54" s="4"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="2"/>
       <c r="H54" s="3"/>
@@ -952,14 +1012,14 @@
       <c r="O54" s="4"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
+      <c r="B55" s="1"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="2"/>
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="2"/>
+      <c r="I55" s="3"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="2"/>
@@ -968,15 +1028,14 @@
       <c r="O55" s="4"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="3"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="3"/>
       <c r="G56" s="2"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="I56" s="2"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="2"/>
@@ -985,11 +1044,12 @@
       <c r="O56" s="4"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
       <c r="B57" s="1"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="3"/>
       <c r="G57" s="2"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -1039,7 +1099,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -1070,7 +1130,7 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="4"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
@@ -1177,14 +1237,14 @@
       <c r="O68" s="4"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
+      <c r="B69" s="1"/>
       <c r="C69" s="4"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="4"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+      <c r="I69" s="3"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="2"/>
@@ -1200,7 +1260,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="3"/>
+      <c r="I70" s="2"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="2"/>
@@ -1216,7 +1276,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="4"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="I71" s="3"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="2"/>
@@ -1225,14 +1285,14 @@
       <c r="O71" s="4"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
+      <c r="B72" s="3"/>
       <c r="C72" s="4"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="3"/>
+      <c r="I72" s="2"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="2"/>
@@ -1245,26 +1305,26 @@
       <c r="C73" s="4"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="4"/>
+      <c r="F73" s="2"/>
       <c r="G73" s="4"/>
       <c r="H73" s="2"/>
       <c r="I73" s="3"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
+      <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
+      <c r="B74" s="1"/>
       <c r="C74" s="4"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="4"/>
+      <c r="I74" s="3"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -1292,7 +1352,7 @@
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="4"/>
+      <c r="E76" s="2"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="2"/>
@@ -1368,82 +1428,93 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="M81" s="7"/>
-    </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D82" s="7"/>
       <c r="H82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D83" s="7"/>
       <c r="H83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D84" s="7"/>
       <c r="H84" s="7"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D85" s="7"/>
       <c r="H85" s="7"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D86" s="7"/>
       <c r="H86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D87" s="7"/>
       <c r="H87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D88" s="7"/>
       <c r="H88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D89" s="7"/>
       <c r="H89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D90" s="7"/>
       <c r="H90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D91" s="7"/>
       <c r="H91" s="7"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D92" s="7"/>
       <c r="H92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D93" s="7"/>
       <c r="H93" s="7"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D94" s="7"/>
       <c r="H94" s="7"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D95" s="7"/>
       <c r="H95" s="7"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D96" s="7"/>
       <c r="H96" s="7"/>
       <c r="M96" s="7"/>
@@ -5987,6 +6058,11 @@
       <c r="D1004" s="7"/>
       <c r="H1004" s="7"/>
       <c r="M1004" s="7"/>
+    </row>
+    <row r="1005" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D1005" s="7"/>
+      <c r="H1005" s="7"/>
+      <c r="M1005" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6002,36 +6078,38 @@
     <hyperlink ref="A12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="A13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A42" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A43" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A44" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A45" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A32" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A34" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A35" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A36" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A37" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A38" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A39" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A40" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A41" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A42" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A43" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A20" r:id="rId40" xr:uid="{5F70EE89-FF84-479F-80F8-80DFD0759EC8}"/>
+    <hyperlink ref="A21" r:id="rId41" xr:uid="{3D7E921C-C5A4-4CD7-BA89-7C2CA9C00330}"/>
+    <hyperlink ref="A22" r:id="rId42" xr:uid="{B39FCA3F-1C00-44AB-9A8B-683212085875}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
--- a/Week 11/Week 11 Plan.xlsx
+++ b/Week 11/Week 11 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACBC942-61CE-445A-A391-265A89581043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C758F2A1-0C9D-4778-A771-6687741B96DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>Strings, Divide and Conquer, Bit Manipulation.</t>
   </si>
@@ -91,9 +91,6 @@
     <t>https://www.geeksforgeeks.org/program-for-nth-fibonacci-number/</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/closest-pair-of-points-using-divide-and-conquer-algorithm/</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/maximum-subarray-sum-using-divide-and-conquer-algorithm/</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>https://leetcode.com/problems/power-of-four/</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/sum-of-two-integers/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/hamming-distance/</t>
   </si>
   <si>
@@ -167,6 +161,15 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/rabin-karp-algorithm-for-pattern-searching/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/closest-pair-of-points-onlogn-implementation/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/multiply-strings/</t>
   </si>
 </sst>
 </file>
@@ -276,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,6 +324,8 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,10 +545,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O1005"/>
+  <dimension ref="A1:O1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -558,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -572,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -588,10 +593,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -599,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,7 +626,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -629,10 +634,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -640,10 +645,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -673,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -689,10 +694,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -700,10 +705,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -711,29 +716,29 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="10"/>
     </row>
@@ -742,188 +747,239 @@
         <v>19</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="10"/>
+      <c r="A29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>27</v>
+      <c r="A31" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>29</v>
+      <c r="A33" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="10"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="4"/>
+      <c r="A47" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="2"/>
+      <c r="I48" s="3"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="4"/>
+      <c r="N48" s="5"/>
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="2"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="2"/>
@@ -952,7 +1008,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="3"/>
       <c r="G51" s="2"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -1000,7 +1056,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -1013,9 +1069,9 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
-      <c r="C55" s="4"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
       <c r="H55" s="3"/>
@@ -1028,14 +1084,14 @@
       <c r="O55" s="4"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="2"/>
       <c r="F56" s="3"/>
       <c r="G56" s="2"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="2"/>
+      <c r="I56" s="3"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="2"/>
@@ -1044,15 +1100,14 @@
       <c r="O56" s="4"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
       <c r="G57" s="2"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="2"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="2"/>
@@ -1061,11 +1116,12 @@
       <c r="O57" s="4"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
       <c r="B58" s="1"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="F58" s="3"/>
       <c r="G58" s="2"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -1115,7 +1171,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -1146,7 +1202,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="4"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
@@ -1253,14 +1309,14 @@
       <c r="O69" s="4"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
+      <c r="B70" s="1"/>
       <c r="C70" s="4"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="I70" s="3"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="2"/>
@@ -1276,7 +1332,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="4"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="3"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="2"/>
@@ -1292,7 +1348,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="I72" s="3"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="2"/>
@@ -1301,14 +1357,14 @@
       <c r="O72" s="4"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
+      <c r="B73" s="3"/>
       <c r="C73" s="4"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="4"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="3"/>
+      <c r="I73" s="2"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="2"/>
@@ -1321,26 +1377,26 @@
       <c r="C74" s="4"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="4"/>
+      <c r="F74" s="2"/>
       <c r="G74" s="4"/>
       <c r="H74" s="2"/>
       <c r="I74" s="3"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
+      <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
+      <c r="B75" s="1"/>
       <c r="C75" s="4"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="4"/>
+      <c r="I75" s="3"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -1368,7 +1424,7 @@
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="4"/>
+      <c r="E77" s="2"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="2"/>
@@ -1445,9 +1501,20 @@
       <c r="O81" s="4"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="M82" s="7"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D83" s="7"/>
@@ -6063,6 +6130,11 @@
       <c r="D1005" s="7"/>
       <c r="H1005" s="7"/>
       <c r="M1005" s="7"/>
+    </row>
+    <row r="1006" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D1006" s="7"/>
+      <c r="H1006" s="7"/>
+      <c r="M1006" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6084,32 +6156,33 @@
     <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="A19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="A23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A32" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A34" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A35" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A36" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A37" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A38" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A39" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A40" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A41" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A42" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A43" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A20" r:id="rId40" xr:uid="{5F70EE89-FF84-479F-80F8-80DFD0759EC8}"/>
-    <hyperlink ref="A21" r:id="rId41" xr:uid="{3D7E921C-C5A4-4CD7-BA89-7C2CA9C00330}"/>
-    <hyperlink ref="A22" r:id="rId42" xr:uid="{B39FCA3F-1C00-44AB-9A8B-683212085875}"/>
+    <hyperlink ref="A27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A34" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A35" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A36" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A37" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A38" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A39" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A40" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A41" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A42" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A43" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A44" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A45" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A46" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A47" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A20" r:id="rId38" xr:uid="{5F70EE89-FF84-479F-80F8-80DFD0759EC8}"/>
+    <hyperlink ref="A21" r:id="rId39" xr:uid="{3D7E921C-C5A4-4CD7-BA89-7C2CA9C00330}"/>
+    <hyperlink ref="A22" r:id="rId40" xr:uid="{B39FCA3F-1C00-44AB-9A8B-683212085875}"/>
+    <hyperlink ref="A30" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A25" r:id="rId42" xr:uid="{72AF3AAF-7578-4DF5-999A-EF5CACBE921F}"/>
+    <hyperlink ref="A24" r:id="rId43" xr:uid="{3166F034-2D56-4109-A85A-C73C08B0064B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>